--- a/Booklet/Labmon Burndown Chart.xlsx
+++ b/Booklet/Labmon Burndown Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\condr\Desktop\UNI\LAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliaagosta/Desktop/Università/Magistrale/1850965_Labmon/Booklet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9713C341-897D-4C7B-A1FC-134C8193FBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F6DB2C-2425-034F-9D8B-42B414F8744B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4BC1C92C-48AC-4DA3-A80C-C64CED19C106}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17560" xr2:uid="{4BC1C92C-48AC-4DA3-A80C-C64CED19C106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>Game Service Development (Collection)</t>
   </si>
   <si>
-    <t>Game Service Development (Invetory)</t>
-  </si>
-  <si>
     <t>DB configuration for Inventory</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>Game Service Development (Statistics)</t>
   </si>
   <si>
-    <t>Extending game miscroservice (inventory)</t>
-  </si>
-  <si>
     <t>Extending game miscroservice (monster collection)</t>
   </si>
   <si>
@@ -210,13 +204,19 @@
   </si>
   <si>
     <t>SPRINT 8</t>
+  </si>
+  <si>
+    <t>Game Service Development (Inventory)</t>
+  </si>
+  <si>
+    <t>Extending game miscroservice (Inventory)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +274,12 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -517,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -579,9 +585,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -599,7 +611,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2649,7 +2661,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2967,58 +2979,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEB567F-BBD7-4E6D-AF3E-1994D66E478D}">
   <dimension ref="A1:BM61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL33" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="BK66" sqref="BK66"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="44" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="41.5546875" customWidth="1"/>
+    <col min="2" max="2" width="41.5" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
-    <col min="9" max="10" width="8.88671875" customWidth="1"/>
+    <col min="9" max="10" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="20">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16" thickBot="1"/>
+    <row r="3" spans="1:6" ht="16">
       <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
       <c r="F3" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" thickBot="1">
       <c r="B4" s="21"/>
       <c r="C4" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="F4" s="26"/>
     </row>
-    <row r="5" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16" thickTop="1">
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="11">
         <f>SUM(C6:C9)</f>
@@ -3036,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
@@ -3053,7 +3065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
@@ -3070,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
@@ -3087,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
@@ -3104,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
@@ -3124,7 +3136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
@@ -3141,7 +3153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -3158,7 +3170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
@@ -3175,7 +3187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -3192,7 +3204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
@@ -3209,7 +3221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
@@ -3229,7 +3241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6">
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
@@ -3246,7 +3258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6">
       <c r="B18" s="6" t="s">
         <v>6</v>
       </c>
@@ -3263,7 +3275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6">
       <c r="B19" s="6" t="s">
         <v>12</v>
       </c>
@@ -3280,7 +3292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6">
       <c r="B20" s="4" t="s">
         <v>10</v>
       </c>
@@ -3297,7 +3309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6">
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
@@ -3317,7 +3329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6">
       <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
@@ -3334,7 +3346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6">
       <c r="B23" s="6" t="s">
         <v>6</v>
       </c>
@@ -3351,7 +3363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6">
       <c r="B24" s="6" t="s">
         <v>12</v>
       </c>
@@ -3368,7 +3380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6">
       <c r="B25" s="4" t="s">
         <v>10</v>
       </c>
@@ -3385,7 +3397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6">
       <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
@@ -3405,7 +3417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6">
       <c r="B27" s="4" t="s">
         <v>18</v>
       </c>
@@ -3422,7 +3434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6">
       <c r="B28" s="6" t="s">
         <v>21</v>
       </c>
@@ -3439,9 +3451,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6">
       <c r="B29" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="13">
         <v>6</v>
@@ -3456,7 +3468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6">
       <c r="B30" s="6" t="s">
         <v>19</v>
       </c>
@@ -3473,7 +3485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6">
       <c r="B31" s="6" t="s">
         <v>20</v>
       </c>
@@ -3490,7 +3502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6">
       <c r="B32" s="4" t="s">
         <v>10</v>
       </c>
@@ -3507,7 +3519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6">
       <c r="B33" s="5" t="s">
         <v>25</v>
       </c>
@@ -3527,7 +3539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6">
       <c r="B34" s="7" t="s">
         <v>23</v>
       </c>
@@ -3544,9 +3556,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6">
       <c r="B35" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" s="13">
         <v>12</v>
@@ -3561,7 +3573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6">
       <c r="B36" s="6" t="s">
         <v>24</v>
       </c>
@@ -3578,7 +3590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6">
       <c r="B37" s="4" t="s">
         <v>10</v>
       </c>
@@ -3595,9 +3607,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="5" t="s">
-        <v>26</v>
+    <row r="38" spans="2:6">
+      <c r="B38" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="C38" s="11">
         <f>SUM(C39:C43)</f>
@@ -3615,9 +3627,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6">
       <c r="B39" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" s="13">
         <v>6</v>
@@ -3632,9 +3644,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="6" t="s">
-        <v>39</v>
+    <row r="40" spans="2:6">
+      <c r="B40" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="C40" s="13">
         <v>12</v>
@@ -3649,9 +3661,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6">
       <c r="B41" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="13">
         <v>8</v>
@@ -3666,9 +3678,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6">
       <c r="B42" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" s="13">
         <v>8</v>
@@ -3683,7 +3695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6">
       <c r="B43" s="4" t="s">
         <v>10</v>
       </c>
@@ -3700,9 +3712,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6">
       <c r="B44" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" s="11">
         <f>SUM(C45:C48)</f>
@@ -3720,9 +3732,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6">
       <c r="B45" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45" s="13">
         <v>6</v>
@@ -3737,9 +3749,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6">
       <c r="B46" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C46" s="13">
         <v>12</v>
@@ -3754,9 +3766,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6">
       <c r="B47" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C47" s="13">
         <v>8</v>
@@ -3771,7 +3783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6">
       <c r="B48" s="4" t="s">
         <v>10</v>
       </c>
@@ -3788,27 +3800,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:65">
       <c r="B49" s="17"/>
       <c r="C49" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="F49" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="2:65" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="2:65">
       <c r="B50" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C50">
         <f>SUM(C5,C10,C16,C21,C26,C33,C38,C44)</f>
@@ -3830,9 +3842,9 @@
         <v>5.0178571428571432</v>
       </c>
     </row>
-    <row r="55" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:65">
       <c r="I55" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J55" s="18"/>
       <c r="K55" s="18"/>
@@ -3841,7 +3853,7 @@
       <c r="N55" s="18"/>
       <c r="O55" s="18"/>
       <c r="P55" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q55" s="19"/>
       <c r="R55" s="19"/>
@@ -3850,7 +3862,7 @@
       <c r="U55" s="19"/>
       <c r="V55" s="19"/>
       <c r="W55" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X55" s="18"/>
       <c r="Y55" s="18"/>
@@ -3859,7 +3871,7 @@
       <c r="AB55" s="18"/>
       <c r="AC55" s="18"/>
       <c r="AD55" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AE55" s="19"/>
       <c r="AF55" s="19"/>
@@ -3868,7 +3880,7 @@
       <c r="AI55" s="19"/>
       <c r="AJ55" s="19"/>
       <c r="AK55" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AL55" s="18"/>
       <c r="AM55" s="18"/>
@@ -3877,7 +3889,7 @@
       <c r="AP55" s="18"/>
       <c r="AQ55" s="18"/>
       <c r="AR55" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AS55" s="19"/>
       <c r="AT55" s="19"/>
@@ -3886,7 +3898,7 @@
       <c r="AW55" s="19"/>
       <c r="AX55" s="19"/>
       <c r="AY55" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AZ55" s="18"/>
       <c r="BA55" s="18"/>
@@ -3895,7 +3907,7 @@
       <c r="BD55" s="18"/>
       <c r="BE55" s="18"/>
       <c r="BF55" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="BG55" s="19"/>
       <c r="BH55" s="19"/>
@@ -3905,9 +3917,9 @@
       <c r="BL55" s="19"/>
       <c r="BM55" s="19"/>
     </row>
-    <row r="56" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:65">
       <c r="H56" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I56" s="16">
         <v>0</v>
@@ -4081,9 +4093,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:65">
       <c r="H57" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I57">
         <f>C50</f>
@@ -4313,9 +4325,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:65">
       <c r="H58" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I58">
         <v>5</v>
@@ -4489,9 +4501,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:65">
       <c r="H59" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I59">
         <f>C50-I58</f>
@@ -4722,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:65">
       <c r="O61">
         <f>SUM(I58:O58)</f>
         <v>34</v>

--- a/Booklet/Labmon Burndown Chart.xlsx
+++ b/Booklet/Labmon Burndown Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliaagosta/Desktop/Università/Magistrale/1850965_Labmon/Booklet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\condr\Desktop\UNI\LAB\1850965_Labmon\Booklet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F6DB2C-2425-034F-9D8B-42B414F8744B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70779DFE-13DD-4201-8A2C-65D49E3F0EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17560" xr2:uid="{4BC1C92C-48AC-4DA3-A80C-C64CED19C106}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4BC1C92C-48AC-4DA3-A80C-C64CED19C106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>TASK TITLE</t>
   </si>
@@ -210,13 +210,16 @@
   </si>
   <si>
     <t>Extending game miscroservice (Inventory)</t>
+  </si>
+  <si>
+    <t>HRS PLANNED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +575,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -585,15 +594,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -611,7 +614,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -622,37 +625,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1046,6 +1019,216 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B9E7-4F7B-908B-54BDD2697A0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HRS PLANNED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$60:$BM$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0B94-4ACD-BDC5-3E9EC3CD0CC9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1079,7 +1262,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="FFC000"/>
               </a:solidFill>
@@ -1472,7 +1655,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx2">
                   <a:lumMod val="50000"/>
@@ -2661,7 +2844,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2979,44 +3162,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEB567F-BBD7-4E6D-AF3E-1994D66E478D}">
   <dimension ref="A1:BM61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="44" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="E58" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.5" customWidth="1"/>
+    <col min="2" max="2" width="41.44140625" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
-    <col min="9" max="10" width="8.83203125" customWidth="1"/>
+    <col min="9" max="10" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="16" thickBot="1"/>
-    <row r="3" spans="1:6" ht="16">
-      <c r="B3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="22" t="s">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" thickBot="1">
-      <c r="B4" s="21"/>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="23"/>
       <c r="C4" s="8" t="s">
         <v>33</v>
       </c>
@@ -3026,9 +3209,9 @@
       <c r="E4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" spans="1:6" ht="16" thickTop="1">
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
@@ -3048,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
@@ -3065,7 +3248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
@@ -3082,7 +3265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
@@ -3099,7 +3282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
@@ -3116,7 +3299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
@@ -3136,7 +3319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
@@ -3153,7 +3336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -3170,7 +3353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
@@ -3187,7 +3370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -3204,7 +3387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
@@ -3221,7 +3404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
@@ -3241,7 +3424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
@@ -3258,7 +3441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>6</v>
       </c>
@@ -3275,7 +3458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>12</v>
       </c>
@@ -3292,7 +3475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>10</v>
       </c>
@@ -3309,7 +3492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
@@ -3329,7 +3512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
@@ -3346,7 +3529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>6</v>
       </c>
@@ -3363,7 +3546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
         <v>12</v>
       </c>
@@ -3380,7 +3563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>10</v>
       </c>
@@ -3397,7 +3580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
@@ -3417,7 +3600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>18</v>
       </c>
@@ -3434,7 +3617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
         <v>21</v>
       </c>
@@ -3451,7 +3634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>35</v>
       </c>
@@ -3468,7 +3651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>19</v>
       </c>
@@ -3485,7 +3668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>20</v>
       </c>
@@ -3502,7 +3685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>10</v>
       </c>
@@ -3519,7 +3702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>25</v>
       </c>
@@ -3539,7 +3722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>23</v>
       </c>
@@ -3556,7 +3739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>38</v>
       </c>
@@ -3573,7 +3756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
         <v>24</v>
       </c>
@@ -3590,7 +3773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>10</v>
       </c>
@@ -3607,8 +3790,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="27" t="s">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="20" t="s">
         <v>56</v>
       </c>
       <c r="C38" s="11">
@@ -3627,7 +3810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>26</v>
       </c>
@@ -3644,8 +3827,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="28" t="s">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C40" s="13">
@@ -3661,7 +3844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
         <v>27</v>
       </c>
@@ -3678,7 +3861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
         <v>28</v>
       </c>
@@ -3695,7 +3878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>10</v>
       </c>
@@ -3712,7 +3895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
         <v>37</v>
       </c>
@@ -3732,7 +3915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>34</v>
       </c>
@@ -3749,7 +3932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="6" t="s">
         <v>40</v>
       </c>
@@ -3766,7 +3949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="6" t="s">
         <v>36</v>
       </c>
@@ -3783,7 +3966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
         <v>10</v>
       </c>
@@ -3800,7 +3983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:65">
+    <row r="49" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B49" s="17"/>
       <c r="C49" s="13" t="s">
         <v>33</v>
@@ -3818,7 +4001,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:65">
+    <row r="50" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B50" s="14" t="s">
         <v>42</v>
       </c>
@@ -3842,7 +4025,7 @@
         <v>5.0178571428571432</v>
       </c>
     </row>
-    <row r="55" spans="2:65">
+    <row r="55" spans="2:65" x14ac:dyDescent="0.3">
       <c r="I55" s="18" t="s">
         <v>48</v>
       </c>
@@ -3917,7 +4100,7 @@
       <c r="BL55" s="19"/>
       <c r="BM55" s="19"/>
     </row>
-    <row r="56" spans="2:65">
+    <row r="56" spans="2:65" x14ac:dyDescent="0.3">
       <c r="H56" s="15" t="s">
         <v>41</v>
       </c>
@@ -4093,7 +4276,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="2:65">
+    <row r="57" spans="2:65" x14ac:dyDescent="0.3">
       <c r="H57" s="15" t="s">
         <v>45</v>
       </c>
@@ -4325,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:65">
+    <row r="58" spans="2:65" x14ac:dyDescent="0.3">
       <c r="H58" s="15" t="s">
         <v>46</v>
       </c>
@@ -4501,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:65">
+    <row r="59" spans="2:65" x14ac:dyDescent="0.3">
       <c r="H59" s="15" t="s">
         <v>47</v>
       </c>
@@ -4734,7 +4917,183 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:65">
+    <row r="60" spans="2:65" x14ac:dyDescent="0.3">
+      <c r="H60" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+      <c r="J60">
+        <v>5</v>
+      </c>
+      <c r="K60">
+        <v>5</v>
+      </c>
+      <c r="L60">
+        <v>5</v>
+      </c>
+      <c r="M60">
+        <v>5</v>
+      </c>
+      <c r="N60">
+        <v>5</v>
+      </c>
+      <c r="O60">
+        <v>5</v>
+      </c>
+      <c r="P60">
+        <v>5</v>
+      </c>
+      <c r="Q60">
+        <v>5</v>
+      </c>
+      <c r="R60">
+        <v>5</v>
+      </c>
+      <c r="S60">
+        <v>5</v>
+      </c>
+      <c r="T60">
+        <v>5</v>
+      </c>
+      <c r="U60">
+        <v>5</v>
+      </c>
+      <c r="V60">
+        <v>5</v>
+      </c>
+      <c r="W60">
+        <v>5</v>
+      </c>
+      <c r="X60">
+        <v>5</v>
+      </c>
+      <c r="Y60">
+        <v>5</v>
+      </c>
+      <c r="Z60">
+        <v>5</v>
+      </c>
+      <c r="AA60">
+        <v>5</v>
+      </c>
+      <c r="AB60">
+        <v>5</v>
+      </c>
+      <c r="AC60">
+        <v>5</v>
+      </c>
+      <c r="AD60">
+        <v>5</v>
+      </c>
+      <c r="AE60">
+        <v>5</v>
+      </c>
+      <c r="AF60">
+        <v>5</v>
+      </c>
+      <c r="AG60">
+        <v>5</v>
+      </c>
+      <c r="AH60">
+        <v>5</v>
+      </c>
+      <c r="AI60">
+        <v>5</v>
+      </c>
+      <c r="AJ60">
+        <v>5</v>
+      </c>
+      <c r="AK60">
+        <v>5</v>
+      </c>
+      <c r="AL60">
+        <v>5</v>
+      </c>
+      <c r="AM60">
+        <v>5</v>
+      </c>
+      <c r="AN60">
+        <v>5</v>
+      </c>
+      <c r="AO60">
+        <v>5</v>
+      </c>
+      <c r="AP60">
+        <v>5</v>
+      </c>
+      <c r="AQ60">
+        <v>5</v>
+      </c>
+      <c r="AR60">
+        <v>5</v>
+      </c>
+      <c r="AS60">
+        <v>5</v>
+      </c>
+      <c r="AT60">
+        <v>5</v>
+      </c>
+      <c r="AU60">
+        <v>5</v>
+      </c>
+      <c r="AV60">
+        <v>5</v>
+      </c>
+      <c r="AW60">
+        <v>5</v>
+      </c>
+      <c r="AX60">
+        <v>5</v>
+      </c>
+      <c r="AY60">
+        <v>5</v>
+      </c>
+      <c r="AZ60">
+        <v>5</v>
+      </c>
+      <c r="BA60">
+        <v>5</v>
+      </c>
+      <c r="BB60">
+        <v>5</v>
+      </c>
+      <c r="BC60">
+        <v>5</v>
+      </c>
+      <c r="BD60">
+        <v>5</v>
+      </c>
+      <c r="BE60">
+        <v>5</v>
+      </c>
+      <c r="BF60">
+        <v>5</v>
+      </c>
+      <c r="BG60">
+        <v>5</v>
+      </c>
+      <c r="BH60">
+        <v>5</v>
+      </c>
+      <c r="BI60">
+        <v>5</v>
+      </c>
+      <c r="BJ60">
+        <v>5</v>
+      </c>
+      <c r="BK60">
+        <v>5</v>
+      </c>
+      <c r="BL60">
+        <v>5</v>
+      </c>
+      <c r="BM60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:65" x14ac:dyDescent="0.3">
       <c r="O61">
         <f>SUM(I58:O58)</f>
         <v>34</v>
